--- a/Code/Results/Cases/Case_5_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003477927936818</v>
+        <v>1.050419571049633</v>
       </c>
       <c r="D2">
-        <v>1.018798224931275</v>
+        <v>1.047334886536162</v>
       </c>
       <c r="E2">
-        <v>1.01708963056873</v>
+        <v>1.05661466016842</v>
       </c>
       <c r="F2">
-        <v>1.023706123554449</v>
+        <v>1.065336006971663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043012614722708</v>
+        <v>1.038470868084027</v>
       </c>
       <c r="J2">
-        <v>1.025555110068862</v>
+        <v>1.055452823498969</v>
       </c>
       <c r="K2">
-        <v>1.030001738265852</v>
+        <v>1.050097812781029</v>
       </c>
       <c r="L2">
-        <v>1.028315905133701</v>
+        <v>1.059351886840596</v>
       </c>
       <c r="M2">
-        <v>1.034844785524144</v>
+        <v>1.068049522327009</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010770383710524</v>
+        <v>1.051887087344584</v>
       </c>
       <c r="D3">
-        <v>1.024044032859234</v>
+        <v>1.048394878751425</v>
       </c>
       <c r="E3">
-        <v>1.023342263800901</v>
+        <v>1.057921602330407</v>
       </c>
       <c r="F3">
-        <v>1.030346155944412</v>
+        <v>1.06673091686561</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044959171112839</v>
+        <v>1.038778445179996</v>
       </c>
       <c r="J3">
-        <v>1.030971682124525</v>
+        <v>1.056567485010936</v>
       </c>
       <c r="K3">
-        <v>1.034378238198992</v>
+        <v>1.05096898477225</v>
       </c>
       <c r="L3">
-        <v>1.033684939571611</v>
+        <v>1.06047124802195</v>
       </c>
       <c r="M3">
-        <v>1.040604934857426</v>
+        <v>1.069258363041624</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0153532379681</v>
+        <v>1.052835602104132</v>
       </c>
       <c r="D4">
-        <v>1.027342979743573</v>
+        <v>1.049079622230745</v>
       </c>
       <c r="E4">
-        <v>1.027278035818646</v>
+        <v>1.058766568772491</v>
       </c>
       <c r="F4">
-        <v>1.034526395174578</v>
+        <v>1.067632869009196</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046170234565228</v>
+        <v>1.038975630911725</v>
       </c>
       <c r="J4">
-        <v>1.034372196398185</v>
+        <v>1.057287264884252</v>
       </c>
       <c r="K4">
-        <v>1.037122229981795</v>
+        <v>1.051530953772043</v>
       </c>
       <c r="L4">
-        <v>1.037058019333253</v>
+        <v>1.061194290505425</v>
       </c>
       <c r="M4">
-        <v>1.044225237109088</v>
+        <v>1.070039384369811</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01724911360933</v>
+        <v>1.053234108588681</v>
       </c>
       <c r="D5">
-        <v>1.028708145239617</v>
+        <v>1.049367218352627</v>
       </c>
       <c r="E5">
-        <v>1.028907661074496</v>
+        <v>1.059121626713343</v>
       </c>
       <c r="F5">
-        <v>1.036257395770374</v>
+        <v>1.068011899566101</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046668238553617</v>
+        <v>1.03905808930625</v>
       </c>
       <c r="J5">
-        <v>1.035778050147804</v>
+        <v>1.057589510242754</v>
       </c>
       <c r="K5">
-        <v>1.038255774511317</v>
+        <v>1.051766792862529</v>
       </c>
       <c r="L5">
-        <v>1.038453101614514</v>
+        <v>1.061497960383681</v>
       </c>
       <c r="M5">
-        <v>1.045722928333898</v>
+        <v>1.070367447874068</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017565684645972</v>
+        <v>1.053301005151543</v>
       </c>
       <c r="D6">
-        <v>1.028936120759783</v>
+        <v>1.049415491271674</v>
       </c>
       <c r="E6">
-        <v>1.029179856124883</v>
+        <v>1.059181232906591</v>
       </c>
       <c r="F6">
-        <v>1.036546532571581</v>
+        <v>1.068075531805007</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046751216401517</v>
+        <v>1.039071908759386</v>
       </c>
       <c r="J6">
-        <v>1.036012742973352</v>
+        <v>1.057640238165003</v>
       </c>
       <c r="K6">
-        <v>1.03844495504795</v>
+        <v>1.051806367179279</v>
       </c>
       <c r="L6">
-        <v>1.038686029612821</v>
+        <v>1.061548930588309</v>
       </c>
       <c r="M6">
-        <v>1.045973009387147</v>
+        <v>1.070422515016367</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015378689371286</v>
+        <v>1.052840927938494</v>
       </c>
       <c r="D7">
-        <v>1.027361305025804</v>
+        <v>1.049083466161005</v>
       </c>
       <c r="E7">
-        <v>1.027299907328232</v>
+        <v>1.058771313720416</v>
       </c>
       <c r="F7">
-        <v>1.034549626652238</v>
+        <v>1.067637934217778</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046176932032147</v>
+        <v>1.038976734446124</v>
       </c>
       <c r="J7">
-        <v>1.034391073100357</v>
+        <v>1.057291304871774</v>
       </c>
       <c r="K7">
-        <v>1.037137453881283</v>
+        <v>1.05153410668299</v>
       </c>
       <c r="L7">
-        <v>1.037076749155217</v>
+        <v>1.06119834931968</v>
       </c>
       <c r="M7">
-        <v>1.044245343097665</v>
+        <v>1.070043769056652</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00597168710163</v>
+        <v>1.050915749588484</v>
       </c>
       <c r="D8">
-        <v>1.020591545820465</v>
+        <v>1.047693354483373</v>
       </c>
       <c r="E8">
-        <v>1.019226403519329</v>
+        <v>1.057056497718345</v>
       </c>
       <c r="F8">
-        <v>1.025975159485449</v>
+        <v>1.065807560436633</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043680804655788</v>
+        <v>1.038575196424498</v>
       </c>
       <c r="J8">
-        <v>1.02740807026538</v>
+        <v>1.055829837794781</v>
       </c>
       <c r="K8">
-        <v>1.031499632459912</v>
+        <v>1.05039259118877</v>
       </c>
       <c r="L8">
-        <v>1.030152089625735</v>
+        <v>1.059730443444193</v>
       </c>
       <c r="M8">
-        <v>1.036814410543814</v>
+        <v>1.068458302633664</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9882671277845617</v>
+        <v>1.047514894375465</v>
       </c>
       <c r="D9">
-        <v>1.007875112802381</v>
+        <v>1.045234895650314</v>
       </c>
       <c r="E9">
-        <v>1.004088036689611</v>
+        <v>1.054029107566314</v>
       </c>
       <c r="F9">
-        <v>1.009902190735151</v>
+        <v>1.062577023048455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038887097831614</v>
+        <v>1.037853503502916</v>
       </c>
       <c r="J9">
-        <v>1.014241117475775</v>
+        <v>1.05324300936773</v>
       </c>
       <c r="K9">
-        <v>1.020841700975016</v>
+        <v>1.048367639406063</v>
       </c>
       <c r="L9">
-        <v>1.017115134727924</v>
+        <v>1.057133972381478</v>
       </c>
       <c r="M9">
-        <v>1.022836629050691</v>
+        <v>1.065655272752547</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9755677189916251</v>
+        <v>1.04524158976055</v>
       </c>
       <c r="D10">
-        <v>0.9987801562339698</v>
+        <v>1.043589716594611</v>
       </c>
       <c r="E10">
-        <v>0.9932753623135984</v>
+        <v>1.05200674523057</v>
       </c>
       <c r="F10">
-        <v>0.9984248463654876</v>
+        <v>1.060419530944579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03538823877227</v>
+        <v>1.037362787392534</v>
       </c>
       <c r="J10">
-        <v>1.004785392961988</v>
+        <v>1.051510423445233</v>
       </c>
       <c r="K10">
-        <v>1.013171470320795</v>
+        <v>1.047008415385327</v>
       </c>
       <c r="L10">
-        <v>1.007767103004881</v>
+        <v>1.055396111794411</v>
       </c>
       <c r="M10">
-        <v>1.012822599056755</v>
+        <v>1.063780091702193</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9698200921292393</v>
+        <v>1.04425569726348</v>
       </c>
       <c r="D11">
-        <v>0.9946726293396385</v>
+        <v>1.042875814162632</v>
       </c>
       <c r="E11">
-        <v>0.9883945270428216</v>
+        <v>1.051130001098874</v>
       </c>
       <c r="F11">
-        <v>0.9932445774795209</v>
+        <v>1.059484340965873</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033791596381657</v>
+        <v>1.037148008293798</v>
       </c>
       <c r="J11">
-        <v>1.000504611861567</v>
+        <v>1.050758226867597</v>
       </c>
       <c r="K11">
-        <v>1.009695716265552</v>
+        <v>1.046417613701293</v>
       </c>
       <c r="L11">
-        <v>1.003538675263345</v>
+        <v>1.054641906787764</v>
       </c>
       <c r="M11">
-        <v>1.008295025633191</v>
+        <v>1.062966513118143</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.967644254372401</v>
+        <v>1.043889254436919</v>
       </c>
       <c r="D12">
-        <v>0.9931192247699338</v>
+        <v>1.042610404919302</v>
       </c>
       <c r="E12">
-        <v>0.9865489460292131</v>
+        <v>1.05080417609307</v>
       </c>
       <c r="F12">
-        <v>0.9912858542563767</v>
+        <v>1.059136816112559</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033185317757392</v>
+        <v>1.037067883107863</v>
       </c>
       <c r="J12">
-        <v>0.9988840224024803</v>
+        <v>1.050478525326042</v>
       </c>
       <c r="K12">
-        <v>1.008379447610708</v>
+        <v>1.046197821646436</v>
       </c>
       <c r="L12">
-        <v>1.001938465307764</v>
+        <v>1.054361500789247</v>
       </c>
       <c r="M12">
-        <v>1.00658192971833</v>
+        <v>1.062664065890458</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.968112892436804</v>
+        <v>1.043967868580332</v>
       </c>
       <c r="D13">
-        <v>0.9934537273081139</v>
+        <v>1.042667346766739</v>
       </c>
       <c r="E13">
-        <v>0.9869463534809233</v>
+        <v>1.050874074140893</v>
       </c>
       <c r="F13">
-        <v>0.9917076209546304</v>
+        <v>1.059211368426105</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033315981193085</v>
+        <v>1.037085085947829</v>
       </c>
       <c r="J13">
-        <v>0.9992330691870172</v>
+        <v>1.050538536021186</v>
       </c>
       <c r="K13">
-        <v>1.008662967954904</v>
+        <v>1.04624498333183</v>
       </c>
       <c r="L13">
-        <v>1.002283097095972</v>
+        <v>1.054421660709295</v>
       </c>
       <c r="M13">
-        <v>1.006950858682026</v>
+        <v>1.062728953156727</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9696410934941657</v>
+        <v>1.044225411893695</v>
       </c>
       <c r="D14">
-        <v>0.9945448032044587</v>
+        <v>1.042853880152633</v>
       </c>
       <c r="E14">
-        <v>0.9882426533131212</v>
+        <v>1.05110307166493</v>
       </c>
       <c r="F14">
-        <v>0.9930833916064897</v>
+        <v>1.059455617623474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033741756715397</v>
+        <v>1.037141392202977</v>
       </c>
       <c r="J14">
-        <v>1.000371291648436</v>
+        <v>1.050735112848225</v>
       </c>
       <c r="K14">
-        <v>1.009587440066484</v>
+        <v>1.046399452622425</v>
       </c>
       <c r="L14">
-        <v>1.003407020127492</v>
+        <v>1.054618733688917</v>
       </c>
       <c r="M14">
-        <v>1.008154076365738</v>
+        <v>1.062941517825971</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9705771331820474</v>
+        <v>1.044384061003102</v>
       </c>
       <c r="D15">
-        <v>0.9952133104816505</v>
+        <v>1.042968778377015</v>
       </c>
       <c r="E15">
-        <v>0.9890369357997592</v>
+        <v>1.051244142798899</v>
       </c>
       <c r="F15">
-        <v>0.9939263788415604</v>
+        <v>1.05960608706895</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034002309456751</v>
+        <v>1.037176038355974</v>
       </c>
       <c r="J15">
-        <v>1.001068463650315</v>
+        <v>1.050856190105552</v>
       </c>
       <c r="K15">
-        <v>1.010153631709427</v>
+        <v>1.046494580806664</v>
       </c>
       <c r="L15">
-        <v>1.004095507808054</v>
+        <v>1.054740122154739</v>
       </c>
       <c r="M15">
-        <v>1.008891180674341</v>
+        <v>1.063072452914329</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9759436376177331</v>
+        <v>1.045306987176701</v>
       </c>
       <c r="D16">
-        <v>0.9990490060692452</v>
+        <v>1.043637063360244</v>
       </c>
       <c r="E16">
-        <v>0.9935948708490191</v>
+        <v>1.052064909282094</v>
       </c>
       <c r="F16">
-        <v>0.9987639681277566</v>
+        <v>1.060481575215135</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035492404500495</v>
+        <v>1.037376993055359</v>
       </c>
       <c r="J16">
-        <v>1.005065359873329</v>
+        <v>1.051560302169914</v>
       </c>
       <c r="K16">
-        <v>1.013398723956529</v>
+        <v>1.047047577215144</v>
       </c>
       <c r="L16">
-        <v>1.008043721984206</v>
+        <v>1.055446129631348</v>
       </c>
       <c r="M16">
-        <v>1.013118831946383</v>
+        <v>1.06383405177526</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.979240954316082</v>
+        <v>1.045885497640717</v>
       </c>
       <c r="D17">
-        <v>1.001408198358769</v>
+        <v>1.044055848429577</v>
       </c>
       <c r="E17">
-        <v>0.9963988673729044</v>
+        <v>1.052579469804299</v>
       </c>
       <c r="F17">
-        <v>1.001740156378679</v>
+        <v>1.061030478635776</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03640461506639</v>
+        <v>1.037502430751057</v>
       </c>
       <c r="J17">
-        <v>1.007520927781131</v>
+        <v>1.052001440345493</v>
       </c>
       <c r="K17">
-        <v>1.015391581726364</v>
+        <v>1.047393852280127</v>
       </c>
       <c r="L17">
-        <v>1.01047033348617</v>
+        <v>1.055888530635108</v>
       </c>
       <c r="M17">
-        <v>1.015717742990619</v>
+        <v>1.064311346874478</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9811404900686373</v>
+        <v>1.046222785263936</v>
       </c>
       <c r="D18">
-        <v>1.00276810092816</v>
+        <v>1.044299971442547</v>
       </c>
       <c r="E18">
-        <v>0.9980154049514428</v>
+        <v>1.05287950353677</v>
       </c>
       <c r="F18">
-        <v>1.003456021358907</v>
+        <v>1.061350550418249</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036928887890332</v>
+        <v>1.037575375046074</v>
       </c>
       <c r="J18">
-        <v>1.008935420755688</v>
+        <v>1.052258558549573</v>
       </c>
       <c r="K18">
-        <v>1.016539223800328</v>
+        <v>1.047595611982072</v>
       </c>
       <c r="L18">
-        <v>1.011868483248565</v>
+        <v>1.056146411999361</v>
       </c>
       <c r="M18">
-        <v>1.017215364842498</v>
+        <v>1.064589589799085</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9817842575754119</v>
+        <v>1.046337766796282</v>
       </c>
       <c r="D19">
-        <v>1.003229112762419</v>
+        <v>1.044383186239451</v>
       </c>
       <c r="E19">
-        <v>0.9985634598961693</v>
+        <v>1.052981790376485</v>
       </c>
       <c r="F19">
-        <v>1.004037761143651</v>
+        <v>1.06145967081617</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037106354694687</v>
+        <v>1.037600209666509</v>
       </c>
       <c r="J19">
-        <v>1.009414778680402</v>
+        <v>1.052346197110384</v>
       </c>
       <c r="K19">
-        <v>1.016928093803547</v>
+        <v>1.047664370198068</v>
       </c>
       <c r="L19">
-        <v>1.012342359202558</v>
+        <v>1.056234315280425</v>
       </c>
       <c r="M19">
-        <v>1.017722988297522</v>
+        <v>1.064684437284762</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.978889662481808</v>
+        <v>1.045823444279789</v>
       </c>
       <c r="D20">
-        <v>1.00115676766847</v>
+        <v>1.04401093201573</v>
       </c>
       <c r="E20">
-        <v>0.9961000076358284</v>
+        <v>1.05252427278926</v>
       </c>
       <c r="F20">
-        <v>1.001422937997241</v>
+        <v>1.060971596291836</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036307557237064</v>
+        <v>1.037488995385637</v>
       </c>
       <c r="J20">
-        <v>1.00725932669686</v>
+        <v>1.051954130110159</v>
       </c>
       <c r="K20">
-        <v>1.015179307162716</v>
+        <v>1.047356722685737</v>
       </c>
       <c r="L20">
-        <v>1.010211782117979</v>
+        <v>1.055841082160397</v>
       </c>
       <c r="M20">
-        <v>1.015440812817071</v>
+        <v>1.064260153724487</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9691922366084661</v>
+        <v>1.044149578450845</v>
       </c>
       <c r="D21">
-        <v>0.9942242922603088</v>
+        <v>1.042798957217119</v>
       </c>
       <c r="E21">
-        <v>0.9878618496151682</v>
+        <v>1.051035642153273</v>
       </c>
       <c r="F21">
-        <v>0.9926792402080562</v>
+        <v>1.059383696614034</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033616749482716</v>
+        <v>1.037124820998022</v>
       </c>
       <c r="J21">
-        <v>1.000036977721565</v>
+        <v>1.050677234259528</v>
       </c>
       <c r="K21">
-        <v>1.009315919644491</v>
+        <v>1.046353974740938</v>
       </c>
       <c r="L21">
-        <v>1.003076890623265</v>
+        <v>1.054560707846963</v>
       </c>
       <c r="M21">
-        <v>1.007800646743704</v>
+        <v>1.06287892971788</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9628562552235398</v>
+        <v>1.043095769134393</v>
       </c>
       <c r="D22">
-        <v>0.9897040578813099</v>
+        <v>1.042035583974373</v>
       </c>
       <c r="E22">
-        <v>0.9824918287448797</v>
+        <v>1.050098733890084</v>
       </c>
       <c r="F22">
-        <v>0.9869801600920813</v>
+        <v>1.058384428969622</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03184791206458</v>
+        <v>1.036893843529409</v>
       </c>
       <c r="J22">
-        <v>0.9953179476462798</v>
+        <v>1.04987264775608</v>
       </c>
       <c r="K22">
-        <v>1.00548227637752</v>
+        <v>1.045721526496466</v>
       </c>
       <c r="L22">
-        <v>0.9984182919909789</v>
+        <v>1.05375417485007</v>
       </c>
       <c r="M22">
-        <v>1.002814031460239</v>
+        <v>1.062009062186422</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9662390278095402</v>
+        <v>1.043654547074527</v>
       </c>
       <c r="D23">
-        <v>0.9921164551291568</v>
+        <v>1.042440392630185</v>
       </c>
       <c r="E23">
-        <v>0.9853576334384558</v>
+        <v>1.050595498395287</v>
       </c>
       <c r="F23">
-        <v>0.9900215310876646</v>
+        <v>1.058914246285722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032793257848357</v>
+        <v>1.037016479843571</v>
       </c>
       <c r="J23">
-        <v>0.9978373990590642</v>
+        <v>1.050299342127416</v>
       </c>
       <c r="K23">
-        <v>1.007529246393389</v>
+        <v>1.04605698843174</v>
       </c>
       <c r="L23">
-        <v>1.000905164120828</v>
+        <v>1.054181878236642</v>
       </c>
       <c r="M23">
-        <v>1.005475826789567</v>
+        <v>1.062470333533348</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9790484692206335</v>
+        <v>1.045851483979361</v>
       </c>
       <c r="D24">
-        <v>1.001270428192407</v>
+        <v>1.044031228265008</v>
       </c>
       <c r="E24">
-        <v>0.996235107956674</v>
+        <v>1.052549214255971</v>
       </c>
       <c r="F24">
-        <v>1.001566337213984</v>
+        <v>1.060998202980228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036351437538872</v>
+        <v>1.037495066933158</v>
       </c>
       <c r="J24">
-        <v>1.007377587782083</v>
+        <v>1.051975508157149</v>
       </c>
       <c r="K24">
-        <v>1.01527527035916</v>
+        <v>1.047373500621018</v>
       </c>
       <c r="L24">
-        <v>1.010328663484195</v>
+        <v>1.055862522589706</v>
       </c>
       <c r="M24">
-        <v>1.015566001937752</v>
+        <v>1.064283286185358</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9929911273879368</v>
+        <v>1.048395137739025</v>
       </c>
       <c r="D25">
-        <v>1.011264389521187</v>
+        <v>1.045871543919772</v>
       </c>
       <c r="E25">
-        <v>1.008120061500031</v>
+        <v>1.054812461920957</v>
       </c>
       <c r="F25">
-        <v>1.014182625569289</v>
+        <v>1.063412841091095</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040176815734544</v>
+        <v>1.038041761922937</v>
       </c>
       <c r="J25">
-        <v>1.017756692438321</v>
+        <v>1.053913162087669</v>
       </c>
       <c r="K25">
-        <v>1.023690321256399</v>
+        <v>1.048892754000794</v>
       </c>
       <c r="L25">
-        <v>1.020593618301035</v>
+        <v>1.057806415224205</v>
       </c>
       <c r="M25">
-        <v>1.026564692932676</v>
+        <v>1.06638104684888</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050419571049633</v>
+        <v>1.003477927936818</v>
       </c>
       <c r="D2">
-        <v>1.047334886536162</v>
+        <v>1.018798224931276</v>
       </c>
       <c r="E2">
-        <v>1.05661466016842</v>
+        <v>1.01708963056873</v>
       </c>
       <c r="F2">
-        <v>1.065336006971663</v>
+        <v>1.023706123554449</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038470868084027</v>
+        <v>1.043012614722708</v>
       </c>
       <c r="J2">
-        <v>1.055452823498969</v>
+        <v>1.025555110068862</v>
       </c>
       <c r="K2">
-        <v>1.050097812781029</v>
+        <v>1.030001738265852</v>
       </c>
       <c r="L2">
-        <v>1.059351886840596</v>
+        <v>1.028315905133702</v>
       </c>
       <c r="M2">
-        <v>1.068049522327009</v>
+        <v>1.034844785524144</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051887087344584</v>
+        <v>1.010770383710524</v>
       </c>
       <c r="D3">
-        <v>1.048394878751425</v>
+        <v>1.024044032859234</v>
       </c>
       <c r="E3">
-        <v>1.057921602330407</v>
+        <v>1.023342263800901</v>
       </c>
       <c r="F3">
-        <v>1.06673091686561</v>
+        <v>1.030346155944412</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038778445179996</v>
+        <v>1.044959171112839</v>
       </c>
       <c r="J3">
-        <v>1.056567485010936</v>
+        <v>1.030971682124525</v>
       </c>
       <c r="K3">
-        <v>1.05096898477225</v>
+        <v>1.034378238198992</v>
       </c>
       <c r="L3">
-        <v>1.06047124802195</v>
+        <v>1.03368493957161</v>
       </c>
       <c r="M3">
-        <v>1.069258363041624</v>
+        <v>1.040604934857426</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052835602104132</v>
+        <v>1.015353237968098</v>
       </c>
       <c r="D4">
-        <v>1.049079622230745</v>
+        <v>1.027342979743572</v>
       </c>
       <c r="E4">
-        <v>1.058766568772491</v>
+        <v>1.027278035818644</v>
       </c>
       <c r="F4">
-        <v>1.067632869009196</v>
+        <v>1.034526395174576</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038975630911725</v>
+        <v>1.046170234565228</v>
       </c>
       <c r="J4">
-        <v>1.057287264884252</v>
+        <v>1.034372196398184</v>
       </c>
       <c r="K4">
-        <v>1.051530953772043</v>
+        <v>1.037122229981794</v>
       </c>
       <c r="L4">
-        <v>1.061194290505425</v>
+        <v>1.037058019333251</v>
       </c>
       <c r="M4">
-        <v>1.070039384369811</v>
+        <v>1.044225237109086</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053234108588681</v>
+        <v>1.017249113609328</v>
       </c>
       <c r="D5">
-        <v>1.049367218352627</v>
+        <v>1.028708145239616</v>
       </c>
       <c r="E5">
-        <v>1.059121626713343</v>
+        <v>1.028907661074495</v>
       </c>
       <c r="F5">
-        <v>1.068011899566101</v>
+        <v>1.036257395770372</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03905808930625</v>
+        <v>1.046668238553616</v>
       </c>
       <c r="J5">
-        <v>1.057589510242754</v>
+        <v>1.035778050147803</v>
       </c>
       <c r="K5">
-        <v>1.051766792862529</v>
+        <v>1.038255774511317</v>
       </c>
       <c r="L5">
-        <v>1.061497960383681</v>
+        <v>1.038453101614513</v>
       </c>
       <c r="M5">
-        <v>1.070367447874068</v>
+        <v>1.045722928333897</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053301005151543</v>
+        <v>1.017565684645972</v>
       </c>
       <c r="D6">
-        <v>1.049415491271674</v>
+        <v>1.028936120759783</v>
       </c>
       <c r="E6">
-        <v>1.059181232906591</v>
+        <v>1.029179856124882</v>
       </c>
       <c r="F6">
-        <v>1.068075531805007</v>
+        <v>1.036546532571581</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039071908759386</v>
+        <v>1.046751216401517</v>
       </c>
       <c r="J6">
-        <v>1.057640238165003</v>
+        <v>1.036012742973351</v>
       </c>
       <c r="K6">
-        <v>1.051806367179279</v>
+        <v>1.038444955047949</v>
       </c>
       <c r="L6">
-        <v>1.061548930588309</v>
+        <v>1.03868602961282</v>
       </c>
       <c r="M6">
-        <v>1.070422515016367</v>
+        <v>1.045973009387146</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052840927938494</v>
+        <v>1.015378689371286</v>
       </c>
       <c r="D7">
-        <v>1.049083466161005</v>
+        <v>1.027361305025805</v>
       </c>
       <c r="E7">
-        <v>1.058771313720416</v>
+        <v>1.027299907328233</v>
       </c>
       <c r="F7">
-        <v>1.067637934217778</v>
+        <v>1.034549626652238</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038976734446124</v>
+        <v>1.046176932032147</v>
       </c>
       <c r="J7">
-        <v>1.057291304871774</v>
+        <v>1.034391073100358</v>
       </c>
       <c r="K7">
-        <v>1.05153410668299</v>
+        <v>1.037137453881283</v>
       </c>
       <c r="L7">
-        <v>1.06119834931968</v>
+        <v>1.037076749155217</v>
       </c>
       <c r="M7">
-        <v>1.070043769056652</v>
+        <v>1.044245343097665</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050915749588484</v>
+        <v>1.00597168710163</v>
       </c>
       <c r="D8">
-        <v>1.047693354483373</v>
+        <v>1.020591545820465</v>
       </c>
       <c r="E8">
-        <v>1.057056497718345</v>
+        <v>1.019226403519329</v>
       </c>
       <c r="F8">
-        <v>1.065807560436633</v>
+        <v>1.025975159485449</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038575196424498</v>
+        <v>1.043680804655789</v>
       </c>
       <c r="J8">
-        <v>1.055829837794781</v>
+        <v>1.02740807026538</v>
       </c>
       <c r="K8">
-        <v>1.05039259118877</v>
+        <v>1.031499632459913</v>
       </c>
       <c r="L8">
-        <v>1.059730443444193</v>
+        <v>1.030152089625735</v>
       </c>
       <c r="M8">
-        <v>1.068458302633664</v>
+        <v>1.036814410543814</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047514894375465</v>
+        <v>0.9882671277845611</v>
       </c>
       <c r="D9">
-        <v>1.045234895650314</v>
+        <v>1.00787511280238</v>
       </c>
       <c r="E9">
-        <v>1.054029107566314</v>
+        <v>1.004088036689611</v>
       </c>
       <c r="F9">
-        <v>1.062577023048455</v>
+        <v>1.00990219073515</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037853503502916</v>
+        <v>1.038887097831614</v>
       </c>
       <c r="J9">
-        <v>1.05324300936773</v>
+        <v>1.014241117475774</v>
       </c>
       <c r="K9">
-        <v>1.048367639406063</v>
+        <v>1.020841700975015</v>
       </c>
       <c r="L9">
-        <v>1.057133972381478</v>
+        <v>1.017115134727923</v>
       </c>
       <c r="M9">
-        <v>1.065655272752547</v>
+        <v>1.02283662905069</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04524158976055</v>
+        <v>0.9755677189916244</v>
       </c>
       <c r="D10">
-        <v>1.043589716594611</v>
+        <v>0.9987801562339694</v>
       </c>
       <c r="E10">
-        <v>1.05200674523057</v>
+        <v>0.9932753623135975</v>
       </c>
       <c r="F10">
-        <v>1.060419530944579</v>
+        <v>0.9984248463654866</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037362787392534</v>
+        <v>1.03538823877227</v>
       </c>
       <c r="J10">
-        <v>1.051510423445233</v>
+        <v>1.004785392961987</v>
       </c>
       <c r="K10">
-        <v>1.047008415385327</v>
+        <v>1.013171470320794</v>
       </c>
       <c r="L10">
-        <v>1.055396111794411</v>
+        <v>1.00776710300488</v>
       </c>
       <c r="M10">
-        <v>1.063780091702193</v>
+        <v>1.012822599056754</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04425569726348</v>
+        <v>0.969820092129238</v>
       </c>
       <c r="D11">
-        <v>1.042875814162632</v>
+        <v>0.9946726293396374</v>
       </c>
       <c r="E11">
-        <v>1.051130001098874</v>
+        <v>0.9883945270428199</v>
       </c>
       <c r="F11">
-        <v>1.059484340965873</v>
+        <v>0.9932445774795193</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037148008293798</v>
+        <v>1.033791596381656</v>
       </c>
       <c r="J11">
-        <v>1.050758226867597</v>
+        <v>1.000504611861566</v>
       </c>
       <c r="K11">
-        <v>1.046417613701293</v>
+        <v>1.009695716265551</v>
       </c>
       <c r="L11">
-        <v>1.054641906787764</v>
+        <v>1.003538675263343</v>
       </c>
       <c r="M11">
-        <v>1.062966513118143</v>
+        <v>1.008295025633189</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043889254436919</v>
+        <v>0.9676442543724024</v>
       </c>
       <c r="D12">
-        <v>1.042610404919302</v>
+        <v>0.9931192247699351</v>
       </c>
       <c r="E12">
-        <v>1.05080417609307</v>
+        <v>0.9865489460292144</v>
       </c>
       <c r="F12">
-        <v>1.059136816112559</v>
+        <v>0.9912858542563786</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037067883107863</v>
+        <v>1.033185317757392</v>
       </c>
       <c r="J12">
-        <v>1.050478525326042</v>
+        <v>0.9988840224024816</v>
       </c>
       <c r="K12">
-        <v>1.046197821646436</v>
+        <v>1.008379447610709</v>
       </c>
       <c r="L12">
-        <v>1.054361500789247</v>
+        <v>1.001938465307765</v>
       </c>
       <c r="M12">
-        <v>1.062664065890458</v>
+        <v>1.006581929718332</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043967868580332</v>
+        <v>0.9681128924368024</v>
       </c>
       <c r="D13">
-        <v>1.042667346766739</v>
+        <v>0.9934537273081124</v>
       </c>
       <c r="E13">
-        <v>1.050874074140893</v>
+        <v>0.9869463534809219</v>
       </c>
       <c r="F13">
-        <v>1.059211368426105</v>
+        <v>0.9917076209546289</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037085085947829</v>
+        <v>1.033315981193084</v>
       </c>
       <c r="J13">
-        <v>1.050538536021186</v>
+        <v>0.9992330691870157</v>
       </c>
       <c r="K13">
-        <v>1.04624498333183</v>
+        <v>1.008662967954902</v>
       </c>
       <c r="L13">
-        <v>1.054421660709295</v>
+        <v>1.00228309709597</v>
       </c>
       <c r="M13">
-        <v>1.062728953156727</v>
+        <v>1.006950858682025</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044225411893695</v>
+        <v>0.9696410934941651</v>
       </c>
       <c r="D14">
-        <v>1.042853880152633</v>
+        <v>0.9945448032044584</v>
       </c>
       <c r="E14">
-        <v>1.05110307166493</v>
+        <v>0.9882426533131207</v>
       </c>
       <c r="F14">
-        <v>1.059455617623474</v>
+        <v>0.9930833916064891</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037141392202977</v>
+        <v>1.033741756715397</v>
       </c>
       <c r="J14">
-        <v>1.050735112848225</v>
+        <v>1.000371291648435</v>
       </c>
       <c r="K14">
-        <v>1.046399452622425</v>
+        <v>1.009587440066483</v>
       </c>
       <c r="L14">
-        <v>1.054618733688917</v>
+        <v>1.003407020127491</v>
       </c>
       <c r="M14">
-        <v>1.062941517825971</v>
+        <v>1.008154076365738</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044384061003102</v>
+        <v>0.9705771331820479</v>
       </c>
       <c r="D15">
-        <v>1.042968778377015</v>
+        <v>0.9952133104816507</v>
       </c>
       <c r="E15">
-        <v>1.051244142798899</v>
+        <v>0.9890369357997593</v>
       </c>
       <c r="F15">
-        <v>1.05960608706895</v>
+        <v>0.993926378841561</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037176038355974</v>
+        <v>1.034002309456751</v>
       </c>
       <c r="J15">
-        <v>1.050856190105552</v>
+        <v>1.001068463650316</v>
       </c>
       <c r="K15">
-        <v>1.046494580806664</v>
+        <v>1.010153631709427</v>
       </c>
       <c r="L15">
-        <v>1.054740122154739</v>
+        <v>1.004095507808054</v>
       </c>
       <c r="M15">
-        <v>1.063072452914329</v>
+        <v>1.008891180674341</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045306987176701</v>
+        <v>0.9759436376177325</v>
       </c>
       <c r="D16">
-        <v>1.043637063360244</v>
+        <v>0.9990490060692451</v>
       </c>
       <c r="E16">
-        <v>1.052064909282094</v>
+        <v>0.9935948708490183</v>
       </c>
       <c r="F16">
-        <v>1.060481575215135</v>
+        <v>0.9987639681277557</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037376993055359</v>
+        <v>1.035492404500495</v>
       </c>
       <c r="J16">
-        <v>1.051560302169914</v>
+        <v>1.005065359873329</v>
       </c>
       <c r="K16">
-        <v>1.047047577215144</v>
+        <v>1.013398723956529</v>
       </c>
       <c r="L16">
-        <v>1.055446129631348</v>
+        <v>1.008043721984205</v>
       </c>
       <c r="M16">
-        <v>1.06383405177526</v>
+        <v>1.013118831946382</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045885497640717</v>
+        <v>0.9792409543160823</v>
       </c>
       <c r="D17">
-        <v>1.044055848429577</v>
+        <v>1.001408198358769</v>
       </c>
       <c r="E17">
-        <v>1.052579469804299</v>
+        <v>0.9963988673729051</v>
       </c>
       <c r="F17">
-        <v>1.061030478635776</v>
+        <v>1.00174015637868</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037502430751057</v>
+        <v>1.03640461506639</v>
       </c>
       <c r="J17">
-        <v>1.052001440345493</v>
+        <v>1.007520927781132</v>
       </c>
       <c r="K17">
-        <v>1.047393852280127</v>
+        <v>1.015391581726363</v>
       </c>
       <c r="L17">
-        <v>1.055888530635108</v>
+        <v>1.01047033348617</v>
       </c>
       <c r="M17">
-        <v>1.064311346874478</v>
+        <v>1.01571774299062</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046222785263936</v>
+        <v>0.9811404900686361</v>
       </c>
       <c r="D18">
-        <v>1.044299971442547</v>
+        <v>1.002768100928159</v>
       </c>
       <c r="E18">
-        <v>1.05287950353677</v>
+        <v>0.9980154049514415</v>
       </c>
       <c r="F18">
-        <v>1.061350550418249</v>
+        <v>1.003456021358905</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037575375046074</v>
+        <v>1.036928887890331</v>
       </c>
       <c r="J18">
-        <v>1.052258558549573</v>
+        <v>1.008935420755687</v>
       </c>
       <c r="K18">
-        <v>1.047595611982072</v>
+        <v>1.016539223800327</v>
       </c>
       <c r="L18">
-        <v>1.056146411999361</v>
+        <v>1.011868483248563</v>
       </c>
       <c r="M18">
-        <v>1.064589589799085</v>
+        <v>1.017215364842497</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046337766796282</v>
+        <v>0.9817842575754123</v>
       </c>
       <c r="D19">
-        <v>1.044383186239451</v>
+        <v>1.003229112762418</v>
       </c>
       <c r="E19">
-        <v>1.052981790376485</v>
+        <v>0.9985634598961698</v>
       </c>
       <c r="F19">
-        <v>1.06145967081617</v>
+        <v>1.004037761143651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037600209666509</v>
+        <v>1.037106354694687</v>
       </c>
       <c r="J19">
-        <v>1.052346197110384</v>
+        <v>1.009414778680403</v>
       </c>
       <c r="K19">
-        <v>1.047664370198068</v>
+        <v>1.016928093803547</v>
       </c>
       <c r="L19">
-        <v>1.056234315280425</v>
+        <v>1.012342359202558</v>
       </c>
       <c r="M19">
-        <v>1.064684437284762</v>
+        <v>1.017722988297523</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045823444279789</v>
+        <v>0.9788896624818095</v>
       </c>
       <c r="D20">
-        <v>1.04401093201573</v>
+        <v>1.001156767668471</v>
       </c>
       <c r="E20">
-        <v>1.05252427278926</v>
+        <v>0.9961000076358301</v>
       </c>
       <c r="F20">
-        <v>1.060971596291836</v>
+        <v>1.001422937997242</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037488995385637</v>
+        <v>1.036307557237064</v>
       </c>
       <c r="J20">
-        <v>1.051954130110159</v>
+        <v>1.007259326696862</v>
       </c>
       <c r="K20">
-        <v>1.047356722685737</v>
+        <v>1.015179307162717</v>
       </c>
       <c r="L20">
-        <v>1.055841082160397</v>
+        <v>1.01021178211798</v>
       </c>
       <c r="M20">
-        <v>1.064260153724487</v>
+        <v>1.015440812817072</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044149578450845</v>
+        <v>0.9691922366084655</v>
       </c>
       <c r="D21">
-        <v>1.042798957217119</v>
+        <v>0.9942242922603084</v>
       </c>
       <c r="E21">
-        <v>1.051035642153273</v>
+        <v>0.9878618496151679</v>
       </c>
       <c r="F21">
-        <v>1.059383696614034</v>
+        <v>0.9926792402080559</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037124820998022</v>
+        <v>1.033616749482716</v>
       </c>
       <c r="J21">
-        <v>1.050677234259528</v>
+        <v>1.000036977721565</v>
       </c>
       <c r="K21">
-        <v>1.046353974740938</v>
+        <v>1.009315919644491</v>
       </c>
       <c r="L21">
-        <v>1.054560707846963</v>
+        <v>1.003076890623265</v>
       </c>
       <c r="M21">
-        <v>1.06287892971788</v>
+        <v>1.007800646743704</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043095769134393</v>
+        <v>0.9628562552235382</v>
       </c>
       <c r="D22">
-        <v>1.042035583974373</v>
+        <v>0.9897040578813083</v>
       </c>
       <c r="E22">
-        <v>1.050098733890084</v>
+        <v>0.9824918287448786</v>
       </c>
       <c r="F22">
-        <v>1.058384428969622</v>
+        <v>0.98698016009208</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036893843529409</v>
+        <v>1.031847912064579</v>
       </c>
       <c r="J22">
-        <v>1.04987264775608</v>
+        <v>0.9953179476462785</v>
       </c>
       <c r="K22">
-        <v>1.045721526496466</v>
+        <v>1.005482276377519</v>
       </c>
       <c r="L22">
-        <v>1.05375417485007</v>
+        <v>0.9984182919909775</v>
       </c>
       <c r="M22">
-        <v>1.062009062186422</v>
+        <v>1.002814031460237</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043654547074527</v>
+        <v>0.966239027809539</v>
       </c>
       <c r="D23">
-        <v>1.042440392630185</v>
+        <v>0.9921164551291558</v>
       </c>
       <c r="E23">
-        <v>1.050595498395287</v>
+        <v>0.9853576334384545</v>
       </c>
       <c r="F23">
-        <v>1.058914246285722</v>
+        <v>0.9900215310876629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037016479843571</v>
+        <v>1.032793257848357</v>
       </c>
       <c r="J23">
-        <v>1.050299342127416</v>
+        <v>0.9978373990590631</v>
       </c>
       <c r="K23">
-        <v>1.04605698843174</v>
+        <v>1.007529246393388</v>
       </c>
       <c r="L23">
-        <v>1.054181878236642</v>
+        <v>1.000905164120826</v>
       </c>
       <c r="M23">
-        <v>1.062470333533348</v>
+        <v>1.005475826789566</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045851483979361</v>
+        <v>0.9790484692206335</v>
       </c>
       <c r="D24">
-        <v>1.044031228265008</v>
+        <v>1.001270428192407</v>
       </c>
       <c r="E24">
-        <v>1.052549214255971</v>
+        <v>0.996235107956674</v>
       </c>
       <c r="F24">
-        <v>1.060998202980228</v>
+        <v>1.001566337213985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037495066933158</v>
+        <v>1.036351437538873</v>
       </c>
       <c r="J24">
-        <v>1.051975508157149</v>
+        <v>1.007377587782083</v>
       </c>
       <c r="K24">
-        <v>1.047373500621018</v>
+        <v>1.015275270359159</v>
       </c>
       <c r="L24">
-        <v>1.055862522589706</v>
+        <v>1.010328663484195</v>
       </c>
       <c r="M24">
-        <v>1.064283286185358</v>
+        <v>1.015566001937753</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048395137739025</v>
+        <v>0.9929911273879369</v>
       </c>
       <c r="D25">
-        <v>1.045871543919772</v>
+        <v>1.011264389521188</v>
       </c>
       <c r="E25">
-        <v>1.054812461920957</v>
+        <v>1.008120061500031</v>
       </c>
       <c r="F25">
-        <v>1.063412841091095</v>
+        <v>1.014182625569288</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038041761922937</v>
+        <v>1.040176815734544</v>
       </c>
       <c r="J25">
-        <v>1.053913162087669</v>
+        <v>1.017756692438321</v>
       </c>
       <c r="K25">
-        <v>1.048892754000794</v>
+        <v>1.023690321256399</v>
       </c>
       <c r="L25">
-        <v>1.057806415224205</v>
+        <v>1.020593618301035</v>
       </c>
       <c r="M25">
-        <v>1.06638104684888</v>
+        <v>1.026564692932676</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
